--- a/places/Spring:Summer 2023- Florida to Idaho.xlsx
+++ b/places/Spring:Summer 2023- Florida to Idaho.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="509">
   <si>
     <t>Spring/Summer 2023- Florida to Idaho</t>
   </si>
@@ -234,7 +234,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">25 N Main St, Franklin, AR 72536-5537, United States</t>
+      <t xml:space="preserve">Franklin, AR 72536-5537, United States</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -253,7 +253,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1621 W Highway 96, Mansfield, AR 72944-9062, United States</t>
+      <t xml:space="preserve">Mansfield, AR 72944-9062, United States</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -662,1147 +662,1249 @@
     <t>Section 1: From Bulow RV Resort to 1900 Havana Hwy, Quincy, FL 32352-1109, United States</t>
   </si>
   <si>
-    <t>Head toward Snowbird Dr on Woodpecker Ln. Go for 52 ft.</t>
+    <t>Head southwest on Woodpecker Ln. Go for 52 ft.</t>
   </si>
   <si>
     <t>52 ft.</t>
   </si>
   <si>
-    <t>19 seconds</t>
-  </si>
-  <si>
-    <t>Turn left onto Bear Trl. Go for 0.1 mi.</t>
+    <t>21 seconds</t>
+  </si>
+  <si>
+    <t>Turn left onto Bear Trl. Go for 66 ft.</t>
+  </si>
+  <si>
+    <t>66 ft.</t>
+  </si>
+  <si>
+    <t>29 seconds</t>
+  </si>
+  <si>
+    <t>Turn left onto Snowbird Dr. Go for 522 ft.</t>
+  </si>
+  <si>
+    <t>522 ft.</t>
+  </si>
+  <si>
+    <t>56 seconds</t>
+  </si>
+  <si>
+    <t>Turn right onto Gator Trl. Go for 348 ft.</t>
+  </si>
+  <si>
+    <t>348 ft.</t>
+  </si>
+  <si>
+    <t>54 seconds</t>
+  </si>
+  <si>
+    <t>Turn left onto Main Trl. Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>0.3 mi.</t>
+  </si>
+  <si>
+    <t>2 minutes</t>
+  </si>
+  <si>
+    <t>Turn right onto Audubon Way. Go for 0.8 mi.</t>
+  </si>
+  <si>
+    <t>0.8 mi.</t>
+  </si>
+  <si>
+    <t>4 minutes</t>
+  </si>
+  <si>
+    <t>Turn left onto Old Kings Rd S (SR-5A). Go for 2.2 mi.</t>
+  </si>
+  <si>
+    <t>2.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto Old Dixie Hwy (CR-4011). Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>34 seconds</t>
+  </si>
+  <si>
+    <t>Turn right and take ramp onto I-95 N (SR-9). Go for 72.7 mi.</t>
+  </si>
+  <si>
+    <t>72.7 mi.</t>
+  </si>
+  <si>
+    <t>1 hour and 8 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 351B toward Lake City onto I-10 W (SR-8). Go for 163 mi.</t>
+  </si>
+  <si>
+    <t>163 mi.</t>
+  </si>
+  <si>
+    <t>2 hours and 31 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 199 toward Monroe St onto US-27 N (N Monroe St). Go for 8.2 mi.</t>
+  </si>
+  <si>
+    <t>8.2 mi.</t>
+  </si>
+  <si>
+    <t>11 minutes</t>
+  </si>
+  <si>
+    <t>Turn left onto Shady Rest Rd (CR-270). Go for 6.5 mi.</t>
+  </si>
+  <si>
+    <t>6.5 mi.</t>
+  </si>
+  <si>
+    <t>9 minutes</t>
+  </si>
+  <si>
+    <t>Turn left onto Havana Hwy (SR-12). Go for 2.2 mi.</t>
+  </si>
+  <si>
+    <t>Arrive at Havana Hwy (SR-12).</t>
+  </si>
+  <si>
+    <t>Section 2: From 1900 Havana Hwy, Quincy, FL 32352-1109, United States to Gulf Shores RV Resort</t>
+  </si>
+  <si>
+    <t>Head toward Deerwood Cir on Havana Hwy (SR-12). Go for 1.1 mi.</t>
+  </si>
+  <si>
+    <t>1.1 mi.</t>
+  </si>
+  <si>
+    <t>1 minute</t>
+  </si>
+  <si>
+    <t>Turn sharp right onto Pt Milligan Rd (CR-161). Go for 2.9 mi.</t>
+  </si>
+  <si>
+    <t>2.9 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Woodward Rd (CR-270). Go for 4.1 mi.</t>
+  </si>
+  <si>
+    <t>4.1 mi.</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>Turn left onto Attapulgus Hwy (SR-65). Go for 3.2 mi.</t>
+  </si>
+  <si>
+    <t>3.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto King St E. Go for 374 ft.</t>
+  </si>
+  <si>
+    <t>374 ft.</t>
+  </si>
+  <si>
+    <t>Turn left onto N Adams St (SR-267). Go for 0.2 mi.</t>
+  </si>
+  <si>
+    <t>0.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto W Jefferson St (US-90). Go for 4.0 mi.</t>
+  </si>
+  <si>
+    <t>4.0 mi.</t>
+  </si>
+  <si>
+    <t>6 minutes</t>
+  </si>
+  <si>
+    <t>Turn slightly left onto Greensboro Hwy (SR-12/SR-65). Go for 1.6 mi.</t>
+  </si>
+  <si>
+    <t>1.6 mi.</t>
+  </si>
+  <si>
+    <t>Keep right onto Greensboro Hwy (SR-12). Go for 2.2 mi.</t>
+  </si>
+  <si>
+    <t>Take ramp onto I-10 W (SR-8) toward Tallahassee/Pensacola. Go for 174 mi.</t>
+  </si>
+  <si>
+    <t>174 mi.</t>
+  </si>
+  <si>
+    <t>2 hours and 41 minutes</t>
+  </si>
+  <si>
+    <t>Continue on I-10 W. Go for 16.4 mi.</t>
+  </si>
+  <si>
+    <t>16.4 mi.</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 49 toward Baldwin Beach Express. Go for 0.4 mi.</t>
+  </si>
+  <si>
+    <t>0.4 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Baldwin Beach Exp (CR-68 S) toward CR-68/Baldwin Beach Express. Go for 13.1 mi.</t>
+  </si>
+  <si>
+    <t>13.1 mi.</t>
+  </si>
+  <si>
+    <t>16 minutes</t>
+  </si>
+  <si>
+    <t>Turn right onto Foley Beach Exp toward AL-59. Go for 1.1 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto State Highway 59 (AL-59). Go for 9.7 mi.</t>
+  </si>
+  <si>
+    <t>9.7 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto Oak Rd W. Go for 2.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Gulf Stream Loop. Go for 0.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Melvin Plash Ln. Go for 482 ft.</t>
+  </si>
+  <si>
+    <t>482 ft.</t>
+  </si>
+  <si>
+    <t>31 seconds</t>
+  </si>
+  <si>
+    <t>Continue on Gulf Stream Loop. Go for 243 ft.</t>
+  </si>
+  <si>
+    <t>243 ft.</t>
+  </si>
+  <si>
+    <t>18 seconds</t>
+  </si>
+  <si>
+    <t>Turn slightly right onto Barefoot Way. Go for 249 ft.</t>
+  </si>
+  <si>
+    <t>249 ft.</t>
+  </si>
+  <si>
+    <t>16 seconds</t>
+  </si>
+  <si>
+    <t>Arrive at Barefoot Way. Your destination is on the left.</t>
+  </si>
+  <si>
+    <t>Section 3: From Gulf Shores RV Resort to Sun Outdoors New Orleans North Shore</t>
+  </si>
+  <si>
+    <t>Head toward Gulf Stream Loop on Barefoot Way. Go for 249 ft.</t>
+  </si>
+  <si>
+    <t>24 seconds</t>
+  </si>
+  <si>
+    <t>Turn slightly left onto Gulf Stream Loop. Go for 243 ft.</t>
+  </si>
+  <si>
+    <t>Continue on Melvin Plash Ln. Go for 482 ft.</t>
+  </si>
+  <si>
+    <t>35 seconds</t>
+  </si>
+  <si>
+    <t>Turn right onto Gulf Stream Loop. Go for 0.2 mi.</t>
+  </si>
+  <si>
+    <t>59 seconds</t>
+  </si>
+  <si>
+    <t>Turn right onto County Road 6 (CR-6). Go for 2.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto State Highway 59 (AL-59 N). Go for 9.7 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto Foley Beach Exp toward South Foley Beach Express. Go for 1.1 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Baldwin Beach Exp. Go for 13.1 mi.</t>
+  </si>
+  <si>
+    <t>Turn left and take ramp onto I-10 W. Go for 49.5 mi.</t>
+  </si>
+  <si>
+    <t>49.5 mi.</t>
+  </si>
+  <si>
+    <t>47 minutes</t>
+  </si>
+  <si>
+    <t>Continue on I-10 W. Go for 76.9 mi.</t>
+  </si>
+  <si>
+    <t>76.9 mi.</t>
+  </si>
+  <si>
+    <t>1 hour and 11 minutes</t>
+  </si>
+  <si>
+    <t>Continue on I-10 W (Stephen E Ambrose Memorial Pkwy). Go for 5.5 mi.</t>
+  </si>
+  <si>
+    <t>5.5 mi.</t>
+  </si>
+  <si>
+    <t>Keep right toward I-12 W/Hammond/Baton Rouge/I-59 N/Hattiesburg. Go for 0.2 mi.</t>
+  </si>
+  <si>
+    <t>11 seconds</t>
+  </si>
+  <si>
+    <t>Continue on I-12 W (West Florida Republic Pkwy) toward Hammond/Baton Rouge. Go for 38.1 mi.</t>
+  </si>
+  <si>
+    <t>38.1 mi.</t>
+  </si>
+  <si>
+    <t>35 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 47 toward LA-445/Robert. Go for 0.5 mi.</t>
+  </si>
+  <si>
+    <t>0.5 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto Highway 445 (LA-445). Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>Arrive at Highway 445 (LA-445).</t>
+  </si>
+  <si>
+    <t>Section 4: From Sun Outdoors New Orleans North Shore to Mississippi Ale House</t>
+  </si>
+  <si>
+    <t>Head southeast on Highway 445 (LA-445). Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>41 seconds</t>
+  </si>
+  <si>
+    <t>Turn left and take ramp onto I-12 W (West Florida Republic Pkwy) toward Hammond. Go for 9.4 mi.</t>
+  </si>
+  <si>
+    <t>9.4 mi.</t>
+  </si>
+  <si>
+    <t>Take exit 38B toward Jackson onto I-55 N. Go for 36.8 mi.</t>
+  </si>
+  <si>
+    <t>36.8 mi.</t>
+  </si>
+  <si>
+    <t>34 minutes</t>
+  </si>
+  <si>
+    <t>Continue on I-55 N. Go for 93.3 mi.</t>
+  </si>
+  <si>
+    <t>93.3 mi.</t>
+  </si>
+  <si>
+    <t>1 hour and 26 minutes</t>
+  </si>
+  <si>
+    <t>Keep left onto I-55 N toward Grenada/Memphis. Go for 187 mi.</t>
+  </si>
+  <si>
+    <t>187 mi.</t>
+  </si>
+  <si>
+    <t>2 hours and 54 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 283A-B toward I-269/Collierville/MS-304 onto I-269 N. Go for 9.5 mi.</t>
+  </si>
+  <si>
+    <t>9.5 mi.</t>
+  </si>
+  <si>
+    <t>8 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 9 toward MS-305/Olive Branch/Independence. Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Highway 305 N (MS-305 N). Go for 6.4 mi.</t>
+  </si>
+  <si>
+    <t>6.4 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto Goodman Rd. Go for 0.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Pigeon Roost Rd. Go for 217 ft.</t>
+  </si>
+  <si>
+    <t>217 ft.</t>
+  </si>
+  <si>
+    <t>25 seconds</t>
+  </si>
+  <si>
+    <t>Turn right onto Depot St. Go for 509 ft.</t>
+  </si>
+  <si>
+    <t>509 ft.</t>
+  </si>
+  <si>
+    <t>Turn right onto Highway 178 (MS-178). Go for 164 ft.</t>
+  </si>
+  <si>
+    <t>164 ft.</t>
+  </si>
+  <si>
+    <t>4 seconds</t>
+  </si>
+  <si>
+    <t>Arrive at Highway 178 (MS-178). Your destination is on the right.</t>
+  </si>
+  <si>
+    <t>Section 5: From Mississippi Ale House to Franklin, AR 72536-5537, United States</t>
+  </si>
+  <si>
+    <t>Head toward Depot St on Highway 178 (MS-178). Go for 3.4 mi.</t>
+  </si>
+  <si>
+    <t>3.4 mi.</t>
+  </si>
+  <si>
+    <t>Continue on Lamar Ave. Go for 0.8 mi.</t>
+  </si>
+  <si>
+    <t>Keep right onto Lamar Ave (US-78 W). Go for 6.8 mi.</t>
+  </si>
+  <si>
+    <t>6.8 mi.</t>
+  </si>
+  <si>
+    <t>12 minutes</t>
+  </si>
+  <si>
+    <t>Take ramp onto I-240 W toward St Louis. Go for 4.3 mi.</t>
+  </si>
+  <si>
+    <t>4.3 mi.</t>
+  </si>
+  <si>
+    <t>Continue on WB Fowler Senior Expy. Go for 0.6 mi.</t>
+  </si>
+  <si>
+    <t>0.6 mi.</t>
+  </si>
+  <si>
+    <t>38 seconds</t>
+  </si>
+  <si>
+    <t>Continue on I-55 N. Go for 5.0 mi.</t>
+  </si>
+  <si>
+    <t>5.0 mi.</t>
+  </si>
+  <si>
+    <t>Continue toward I-55. Go for 0.1 mi.</t>
   </si>
   <si>
     <t>0.1 mi.</t>
   </si>
   <si>
-    <t>40 seconds</t>
-  </si>
-  <si>
-    <t>Turn slightly left onto Main Trl. Go for 0.4 mi.</t>
-  </si>
-  <si>
-    <t>0.4 mi.</t>
-  </si>
-  <si>
-    <t>2 minutes</t>
-  </si>
-  <si>
-    <t>Turn right onto Audubon Way. Go for 0.8 mi.</t>
-  </si>
-  <si>
-    <t>0.8 mi.</t>
+    <t>12 seconds</t>
+  </si>
+  <si>
+    <t>Continue on I-55. Go for 0.5 mi.</t>
+  </si>
+  <si>
+    <t>57 seconds</t>
+  </si>
+  <si>
+    <t>Take the exit onto I-55 N (W EH Crump Blvd). Go for 0.8 mi.</t>
+  </si>
+  <si>
+    <t>Continue on I-55 N. Go for 7.1 mi.</t>
+  </si>
+  <si>
+    <t>7.1 mi.</t>
+  </si>
+  <si>
+    <t>7 minutes</t>
+  </si>
+  <si>
+    <t>Keep right onto I-55 N toward Blytheville/Jonesboro. Go for 15.7 mi.</t>
+  </si>
+  <si>
+    <t>15.7 mi.</t>
+  </si>
+  <si>
+    <t>14 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 23 toward US-63/Marked Tree/Jonesboro onto I-555 N. Go for 107 mi.</t>
+  </si>
+  <si>
+    <t>107 mi.</t>
+  </si>
+  <si>
+    <t>1 hour and 54 minutes</t>
+  </si>
+  <si>
+    <t>Keep left onto Highway 63 (US-62/US-63/US-412). Go for 1.3 mi.</t>
+  </si>
+  <si>
+    <t>1.3 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Highway 62 412 (US-62/US-412). Go for 10.2 mi.</t>
+  </si>
+  <si>
+    <t>10.2 mi.</t>
+  </si>
+  <si>
+    <t>13 minutes</t>
+  </si>
+  <si>
+    <t>Continue on Ash Flat Dr (US-167). Go for 1.7 mi.</t>
+  </si>
+  <si>
+    <t>1.7 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto Arkansas Highway 56 (AR-56). Go for 4.5 mi.</t>
+  </si>
+  <si>
+    <t>4.5 mi.</t>
+  </si>
+  <si>
+    <t>Continue on E Ar 56 Hwy (AR-56). Go for 3.7 mi.</t>
+  </si>
+  <si>
+    <t>3.7 mi.</t>
+  </si>
+  <si>
+    <t>Continue on E 1st St (AR-56). Go for 2.3 mi.</t>
+  </si>
+  <si>
+    <t>2.3 mi.</t>
   </si>
   <si>
     <t>3 minutes</t>
   </si>
   <si>
-    <t>Turn left onto Old Kings Rd S (SR-5A). Go for 2.2 mi.</t>
-  </si>
-  <si>
-    <t>2.2 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto Old Dixie Hwy (CR-4011). Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>0.3 mi.</t>
-  </si>
-  <si>
-    <t>31 seconds</t>
-  </si>
-  <si>
-    <t>Turn right and take ramp onto I-95 N (SR-9). Go for 72.7 mi.</t>
-  </si>
-  <si>
-    <t>72.7 mi.</t>
-  </si>
-  <si>
-    <t>59 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 351B toward Lake City onto I-10 W (Sr-8). Go for 163 mi.</t>
-  </si>
-  <si>
-    <t>162.5 mi.</t>
-  </si>
-  <si>
-    <t>2 hours and 10 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 199 toward Monroe St onto US-27 N (N Monroe St). Go for 8.2 mi.</t>
-  </si>
-  <si>
-    <t>8.2 mi.</t>
-  </si>
-  <si>
-    <t>10 minutes</t>
-  </si>
-  <si>
-    <t>Turn left onto Shady Rest Rd (CR-270). Go for 6.5 mi.</t>
-  </si>
-  <si>
-    <t>6.5 mi.</t>
-  </si>
-  <si>
-    <t>8 minutes</t>
-  </si>
-  <si>
-    <t>Turn left onto Havana Hwy (SR-12). Go for 2.2 mi.</t>
-  </si>
-  <si>
-    <t>Arrive at Havana Hwy (SR-12).</t>
-  </si>
-  <si>
-    <t>Section 2: From 1900 Havana Hwy, Quincy, FL 32352-1109, United States to Gulf Shores RV Resort</t>
-  </si>
-  <si>
-    <t>Head east on Havana Hwy (SR-12). Go for 2.2 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto Shady Rest Rd (CR-270). Go for 6.5 mi.</t>
-  </si>
-  <si>
-    <t>7 minutes</t>
-  </si>
-  <si>
-    <t>Turn right onto Fl Ga Hwy (US-27). Go for 3.1 mi.</t>
-  </si>
-  <si>
-    <t>3.1 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto Capital Cir NW (SR-263). Go for 3.7 mi.</t>
-  </si>
-  <si>
-    <t>3.7 mi.</t>
-  </si>
-  <si>
-    <t>4 minutes</t>
-  </si>
-  <si>
-    <t>Take ramp onto I-10 W (Sr-8) toward Pensacola. Go for 195 mi.</t>
-  </si>
-  <si>
-    <t>195.2 mi.</t>
-  </si>
-  <si>
-    <t>2 hours and 35 minutes</t>
-  </si>
-  <si>
-    <t>Continue on I-10. Go for 16.4 mi.</t>
-  </si>
-  <si>
-    <t>16.4 mi.</t>
-  </si>
-  <si>
-    <t>13 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 49 toward Baldwin Beach Express. Go for 0.4 mi.</t>
+    <t>Turn right onto N Main St. Go for 125 ft.</t>
+  </si>
+  <si>
+    <t>125 ft.</t>
+  </si>
+  <si>
+    <t>8 seconds</t>
+  </si>
+  <si>
+    <t>Arrive at N Main St. Your destination is on the right.</t>
+  </si>
+  <si>
+    <t>Section 6: From Franklin, AR 72536-5537, United States to Mansfield, AR 72944-9062, United States</t>
+  </si>
+  <si>
+    <t>Head toward S Main St on N Main St. Go for 125 ft.</t>
+  </si>
+  <si>
+    <t>22 seconds</t>
+  </si>
+  <si>
+    <t>Turn right onto W 1st St (AR-56). Go for 1.1 mi.</t>
+  </si>
+  <si>
+    <t>Continue on E Ar 56 Hwy (AR-56). Go for 3.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Lacrosse Rd. Go for 7.4 mi.</t>
+  </si>
+  <si>
+    <t>7.4 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto E Main St (AR-69). Go for 2.1 mi.</t>
+  </si>
+  <si>
+    <t>2.1 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto W AR 58 Hwy (AR-58). Go for 17.5 mi.</t>
+  </si>
+  <si>
+    <t>17.5 mi.</t>
+  </si>
+  <si>
+    <t>23 minutes</t>
+  </si>
+  <si>
+    <t>Turn right onto Highway 14 (AR-14). Go for 7.4 mi.</t>
+  </si>
+  <si>
+    <t>Continue on E Main St (AR-9/AR-66). Go for 0.6 mi.</t>
+  </si>
+  <si>
+    <t>Continue on W Main St (AR-66). Go for 30.1 mi.</t>
+  </si>
+  <si>
+    <t>30.1 mi.</t>
+  </si>
+  <si>
+    <t>41 minutes</t>
+  </si>
+  <si>
+    <t>Turn sharp left onto S US 65 Hwy (US-65). Go for 24.9 mi.</t>
+  </si>
+  <si>
+    <t>24.9 mi.</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>Turn right onto Ar 9 Hwy W (AR-9). Go for 33.4 mi.</t>
+  </si>
+  <si>
+    <t>33.4 mi.</t>
+  </si>
+  <si>
+    <t>Turn right and take ramp onto I-40 W. Go for 100 mi.</t>
+  </si>
+  <si>
+    <t>100 mi.</t>
+  </si>
+  <si>
+    <t>1 hour and 32 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 7 toward US-71 S/Fort Smith onto I-540 S. Go for 12.4 mi.</t>
+  </si>
+  <si>
+    <t>12.4 mi.</t>
+  </si>
+  <si>
+    <t>Take exit 12 toward US-71 S/Texarkana. Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>44 seconds</t>
+  </si>
+  <si>
+    <t>Turn left onto US-71 S. Go for 20.4 mi.</t>
+  </si>
+  <si>
+    <t>20.4 mi.</t>
+  </si>
+  <si>
+    <t>26 minutes</t>
+  </si>
+  <si>
+    <t>Turn right onto Huntington Ave (AR-96). Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto E Howard St (AR-96). Go for 2.2 mi.</t>
+  </si>
+  <si>
+    <t>Arrive at Hartford Mansfield Rd (AR-96). Your destination is on the left.</t>
+  </si>
+  <si>
+    <t>Section 7: From Mansfield, AR 72944-9062, United States to Oklahoma City East KOA Holiday</t>
+  </si>
+  <si>
+    <t>Head toward Chocoville Rd on Hartford Mansfield Rd (AR-96). Go for 2.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Huntington Ave (AR-96). Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto 3rd (US-71). Go for 20.4 mi.</t>
+  </si>
+  <si>
+    <t>27 minutes</t>
+  </si>
+  <si>
+    <t>Continue on S Highway 71 (US-71-BR N). Go for 1.2 mi.</t>
+  </si>
+  <si>
+    <t>1.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto US-71-B (US-71-BR). Go for 4.5 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Garrison Ave (US-64). Go for 0.9 mi.</t>
+  </si>
+  <si>
+    <t>0.9 mi.</t>
+  </si>
+  <si>
+    <t>Continue on US Highway 64 (US-64 W). Go for 5.7 mi.</t>
+  </si>
+  <si>
+    <t>5.7 mi.</t>
+  </si>
+  <si>
+    <t>Turn slightly left and take ramp onto I-40 W toward Okla. City. Go for 159 mi.</t>
+  </si>
+  <si>
+    <t>159 mi.</t>
+  </si>
+  <si>
+    <t>2 hours and 27 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 166 toward Choctaw Rd. Go for 0.4 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto S Choctaw Rd. Go for 0.6 mi.</t>
+  </si>
+  <si>
+    <t>Turn right. Go for 39 ft.</t>
+  </si>
+  <si>
+    <t>39 ft.</t>
+  </si>
+  <si>
+    <t>3 seconds</t>
+  </si>
+  <si>
+    <t>Arrive at your destination on the left.</t>
+  </si>
+  <si>
+    <t>Section 8: From Oklahoma City East KOA Holiday to Amarillo KOA Journey</t>
+  </si>
+  <si>
+    <t>Head toward S Choctaw Rd. Go for 39 ft.</t>
+  </si>
+  <si>
+    <t>39 seconds</t>
+  </si>
+  <si>
+    <t>Turn left onto S Choctaw Rd. Go for 0.6 mi.</t>
+  </si>
+  <si>
+    <t>Turn right and take ramp onto I-40 W (Tom Steed Memorial Hwy). Go for 14.3 mi.</t>
+  </si>
+  <si>
+    <t>14.3 mi.</t>
+  </si>
+  <si>
+    <t>Continue on I-40 W (Stanley Draper Expy) toward Amarillo. Go for 152 mi.</t>
+  </si>
+  <si>
+    <t>152 mi.</t>
+  </si>
+  <si>
+    <t>2 hours and 22 minutes</t>
+  </si>
+  <si>
+    <t>Continue on I-40 W. Go for 91.3 mi.</t>
+  </si>
+  <si>
+    <t>91.3 mi.</t>
+  </si>
+  <si>
+    <t>1 hour and 25 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 85 toward I-40-BL W/Amarillo Blvd. Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>Continue on E Business 40 (I-40-BL W). Go for 4.1 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Old Route 66 (I-40-BL W) toward US-60 W. Go for 4.9 mi.</t>
+  </si>
+  <si>
+    <t>4.9 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Folsom Rd. Go for 0.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn left. Go for 43 ft.</t>
+  </si>
+  <si>
+    <t>43 ft.</t>
+  </si>
+  <si>
+    <t>Arrive at your destination on the right.</t>
+  </si>
+  <si>
+    <t>Section 9: From Amarillo KOA Journey to Albuquerque North / Bernalillo KOA Journey</t>
+  </si>
+  <si>
+    <t>Head toward Folsom Rd. Go for 43 ft.</t>
+  </si>
+  <si>
+    <t>9 seconds</t>
+  </si>
+  <si>
+    <t>Turn right onto Folsom Rd. Go for 0.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Old Route 66 (I-40-BL W). Go for 1.1 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto N Lakeside Dr toward Airport/TX-335-LOOP S. Go for 269 ft.</t>
+  </si>
+  <si>
+    <t>269 ft.</t>
+  </si>
+  <si>
+    <t>10 seconds</t>
+  </si>
+  <si>
+    <t>Take left ramp onto N Lakeside Dr (TX-335-LOOP S). Go for 2.0 mi.</t>
+  </si>
+  <si>
+    <t>2.0 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto E I-40. Go for 0.6 mi.</t>
+  </si>
+  <si>
+    <t>Take left ramp onto I-40 W. Go for 75.1 mi.</t>
+  </si>
+  <si>
+    <t>75.1 mi.</t>
+  </si>
+  <si>
+    <t>1 hour and 12 minutes</t>
+  </si>
+  <si>
+    <t>Continue on I-40 W. Go for 96.9 mi.</t>
+  </si>
+  <si>
+    <t>96.9 mi.</t>
+  </si>
+  <si>
+    <t>1 hour and 31 minutes</t>
+  </si>
+  <si>
+    <t>Continue on I-40 W. Go for 479 ft.</t>
+  </si>
+  <si>
+    <t>479 ft.</t>
+  </si>
+  <si>
+    <t>6 seconds</t>
+  </si>
+  <si>
+    <t>Continue on I-40 W. Go for 116 mi.</t>
+  </si>
+  <si>
+    <t>116 mi.</t>
+  </si>
+  <si>
+    <t>1 hour and 53 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 159B-C toward Santa Fe onto I-25 N (Historic Route 66). Go for 14.5 mi.</t>
+  </si>
+  <si>
+    <t>14.5 mi.</t>
+  </si>
+  <si>
+    <t>Take exit 240 toward Avenida Bernalillo onto NM-473 (E Avenida Bernalillo). Go for 0.5 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto S Hill Rd. Go for 0.8 mi.</t>
+  </si>
+  <si>
+    <t>Turn left. Go for 59 ft.</t>
+  </si>
+  <si>
+    <t>59 ft.</t>
+  </si>
+  <si>
+    <t>Arrive at your destination.</t>
+  </si>
+  <si>
+    <t>Section 10: From Albuquerque North / Bernalillo KOA Journey to Alpen Rose RV Park</t>
+  </si>
+  <si>
+    <t>Head west. Go for 279 ft.</t>
+  </si>
+  <si>
+    <t>279 ft.</t>
+  </si>
+  <si>
+    <t>Turn left. Go for 138 ft.</t>
+  </si>
+  <si>
+    <t>138 ft.</t>
+  </si>
+  <si>
+    <t>27 seconds</t>
+  </si>
+  <si>
+    <t>Turn left toward S Hill Rd. Go for 322 ft.</t>
+  </si>
+  <si>
+    <t>322 ft.</t>
+  </si>
+  <si>
+    <t>Turn right onto E Avenida Bernalillo (NM-473). Go for 0.4 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto S Camino del Pueblo (NM-313). Go for 1.3 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto US-550. Go for 22.5 mi.</t>
+  </si>
+  <si>
+    <t>22.5 mi.</t>
+  </si>
+  <si>
+    <t>24 minutes</t>
+  </si>
+  <si>
+    <t>Continue on US-550. Go for 390 ft.</t>
+  </si>
+  <si>
+    <t>390 ft.</t>
+  </si>
+  <si>
+    <t>7 seconds</t>
+  </si>
+  <si>
+    <t>Continue on US-550. Go for 129 mi.</t>
+  </si>
+  <si>
+    <t>129 mi.</t>
+  </si>
+  <si>
+    <t>2 hours and 5 minutes</t>
+  </si>
+  <si>
+    <t>Turn right onto W Broadway Ave (US-64/US-550). Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto N 1st St (US-550). Go for 8.3 mi.</t>
+  </si>
+  <si>
+    <t>8.3 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto NE Aztec Blvd (US-550 N). Go for 14.5 mi.</t>
+  </si>
+  <si>
+    <t>Continue on Highway 550 (US-550 N). Go for 16.4 mi.</t>
+  </si>
+  <si>
+    <t>20 minutes</t>
+  </si>
+  <si>
+    <t>Turn left onto S Camino del Rio (US-160/US-550). Go for 10.7 mi.</t>
+  </si>
+  <si>
+    <t>10.7 mi.</t>
+  </si>
+  <si>
+    <t>17 minutes</t>
+  </si>
+  <si>
+    <t>Turn left. Go for 466 ft.</t>
+  </si>
+  <si>
+    <t>466 ft.</t>
+  </si>
+  <si>
+    <t>46 seconds</t>
+  </si>
+  <si>
+    <t>Section 11: From Alpen Rose RV Park to Sun Outdoors  North Moab</t>
+  </si>
+  <si>
+    <t>Head toward Highway 550. Go for 466 ft.</t>
+  </si>
+  <si>
+    <t>Turn right onto Highway 550 (US-550). Go for 5.5 mi.</t>
+  </si>
+  <si>
+    <t>Keep right onto Camino del Rio (US-550). Go for 0.8 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto San Juan Skwy (US-160). Go for 27.2 mi.</t>
+  </si>
+  <si>
+    <t>27.2 mi.</t>
+  </si>
+  <si>
+    <t>Continue on Highway 160 (US-160 W). Go for 17.8 mi.</t>
+  </si>
+  <si>
+    <t>17.8 mi.</t>
+  </si>
+  <si>
+    <t>21 minutes</t>
+  </si>
+  <si>
+    <t>Keep right onto N Pinon Dr. Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>Continue on N Broadway (US-491 N). Go for 35.1 mi.</t>
+  </si>
+  <si>
+    <t>35.1 mi.</t>
+  </si>
+  <si>
+    <t>38 minutes</t>
+  </si>
+  <si>
+    <t>Continue on Highway 491 (US-491). Go for 7.8 mi.</t>
+  </si>
+  <si>
+    <t>7.8 mi.</t>
+  </si>
+  <si>
+    <t>Continue on US-491. Go for 17.1 mi.</t>
+  </si>
+  <si>
+    <t>17.1 mi.</t>
+  </si>
+  <si>
+    <t>19 minutes</t>
+  </si>
+  <si>
+    <t>Turn right onto N Main St (US-191). Go for 55.7 mi.</t>
+  </si>
+  <si>
+    <t>55.7 mi.</t>
+  </si>
+  <si>
+    <t>1 hour and 3 minutes</t>
+  </si>
+  <si>
+    <t>Turn left. Go for 62 ft.</t>
+  </si>
+  <si>
+    <t>62 ft.</t>
+  </si>
+  <si>
+    <t>Section 12: From Sun Outdoors  North Moab to 410 Loveridge Dr, Moab, UT 84532-2808, United States</t>
+  </si>
+  <si>
+    <t>Head toward N Highway 191. Go for 62 ft.</t>
+  </si>
+  <si>
+    <t>20 seconds</t>
+  </si>
+  <si>
+    <t>Turn right onto N Highway 191 (US-191). Go for 1.8 mi.</t>
+  </si>
+  <si>
+    <t>1.8 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto E Center St. Go for 0.4 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto S 400 E. Go for 0.4 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Mill Creek Dr. Go for 0.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto Loveridge Dr. Go for 305 ft.</t>
+  </si>
+  <si>
+    <t>305 ft.</t>
+  </si>
+  <si>
+    <t>30 seconds</t>
+  </si>
+  <si>
+    <t>Arrive at Loveridge Dr. Your destination is on the left.</t>
+  </si>
+  <si>
+    <t>Section 13: From 410 Loveridge Dr, Moab, UT 84532-2808, United States to Salt Lake City KOA Holiday</t>
+  </si>
+  <si>
+    <t>Head toward Mill Creek Dr on Loveridge Dr. Go for 305 ft.</t>
+  </si>
+  <si>
+    <t>Turn right onto Mill Creek Dr. Go for 0.2 mi.</t>
+  </si>
+  <si>
+    <t>52 seconds</t>
+  </si>
+  <si>
+    <t>Turn right onto N Main St (US-191). Go for 31.5 mi.</t>
+  </si>
+  <si>
+    <t>31.5 mi.</t>
+  </si>
+  <si>
+    <t>Turn left and take ramp onto I-70 W (Dinosaur Diamond Prehistoric Hwy) toward US-6 W/US-191 W. Go for 23.8 mi.</t>
+  </si>
+  <si>
+    <t>23.8 mi.</t>
+  </si>
+  <si>
+    <t>22 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 157 toward Price/Salt Lake City onto US-6 W/US-191 N (N Highway 6). Go for 127 mi.</t>
+  </si>
+  <si>
+    <t>127 mi.</t>
+  </si>
+  <si>
+    <t>2 hours and 16 minutes</t>
+  </si>
+  <si>
+    <t>Continue on US-6. Go for 0.1 mi.</t>
+  </si>
+  <si>
+    <t>Continue on US-6. Go for 0.4 mi.</t>
+  </si>
+  <si>
+    <t>Take ramp onto I-15 N toward Salt Lake City. Go for 50.0 mi.</t>
+  </si>
+  <si>
+    <t>50.0 mi.</t>
+  </si>
+  <si>
+    <t>Take exit 308 toward 308 onto I-80 W. Go for 1.7 mi.</t>
+  </si>
+  <si>
+    <t>Take exit 118 toward UT-68/Redwood Rd. Go for 0.2 mi.</t>
+  </si>
+  <si>
+    <t>51 seconds</t>
+  </si>
+  <si>
+    <t>Turn right onto S Redwood Rd (UT-68). Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>Turn right onto W North Temple. Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto N 1460 W. Go for 295 ft.</t>
+  </si>
+  <si>
+    <t>295 ft.</t>
+  </si>
+  <si>
+    <t>Turn right. Go for 49 ft.</t>
+  </si>
+  <si>
+    <t>49 ft.</t>
+  </si>
+  <si>
+    <t>Section 14: From Salt Lake City KOA Holiday to Center Point RV Park</t>
+  </si>
+  <si>
+    <t>Head toward N 1460 W. Go for 49 ft.</t>
+  </si>
+  <si>
+    <t>23 seconds</t>
+  </si>
+  <si>
+    <t>Turn left onto N 1460 W. Go for 210 ft.</t>
+  </si>
+  <si>
+    <t>210 ft.</t>
+  </si>
+  <si>
+    <t>28 seconds</t>
+  </si>
+  <si>
+    <t>Turn left onto N Redwood Rd (UT-68). Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>Turn right and take ramp onto I-215 N toward West I-80/West I-215. Go for 6.3 mi.</t>
+  </si>
+  <si>
+    <t>6.3 mi.</t>
+  </si>
+  <si>
+    <t>Take the exit onto I-15 N. Go for 66.2 mi.</t>
+  </si>
+  <si>
+    <t>66.2 mi.</t>
+  </si>
+  <si>
+    <t>1 hour and 1 minute</t>
+  </si>
+  <si>
+    <t>Keep left onto I-84 W toward Boise. Go for 42.2 mi.</t>
+  </si>
+  <si>
+    <t>42.2 mi.</t>
+  </si>
+  <si>
+    <t>39 minutes</t>
+  </si>
+  <si>
+    <t>Continue on I-84 W. Go for 240 mi.</t>
+  </si>
+  <si>
+    <t>240 mi.</t>
+  </si>
+  <si>
+    <t>3 hours and 42 minutes</t>
+  </si>
+  <si>
+    <t>Take exit 35 toward Northside Boulevard. Go for 0.3 mi.</t>
+  </si>
+  <si>
+    <t>Continue on Northside Blvd (ID-55 S). Go for 0.2 mi.</t>
+  </si>
+  <si>
+    <t>Turn left onto 6th St N. Go for 259 ft.</t>
+  </si>
+  <si>
+    <t>259 ft.</t>
   </si>
   <si>
     <t>45 seconds</t>
   </si>
   <si>
-    <t>Turn left onto Baldwin Beach Exp (CR-68) toward Baldwin Beach Express. Go for 13.1 mi.</t>
-  </si>
-  <si>
-    <t>13.1 mi.</t>
-  </si>
-  <si>
-    <t>14 minutes</t>
-  </si>
-  <si>
-    <t>Turn right onto Foley Beach Exp toward AL-59. Go for 1.1 mi.</t>
-  </si>
-  <si>
-    <t>1.1 mi.</t>
-  </si>
-  <si>
-    <t>1 minute</t>
-  </si>
-  <si>
-    <t>Turn left onto State Highway 59 (AL-59). Go for 9.7 mi.</t>
-  </si>
-  <si>
-    <t>9.7 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto Oak Rd W. Go for 2.2 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto Gulf Stream Loop. Go for 0.2 mi.</t>
-  </si>
-  <si>
-    <t>0.2 mi.</t>
-  </si>
-  <si>
-    <t>47 seconds</t>
-  </si>
-  <si>
-    <t>Turn left onto Melvin Plash Ln. Go for 482 ft.</t>
-  </si>
-  <si>
-    <t>482 ft.</t>
-  </si>
-  <si>
-    <t>22 seconds</t>
-  </si>
-  <si>
-    <t>Turn slightly right onto Melvin Plash Ln. Go for 328 ft.</t>
-  </si>
-  <si>
-    <t>328 ft.</t>
-  </si>
-  <si>
-    <t>Turn left onto Flip Flop Ln. Go for 167 ft.</t>
-  </si>
-  <si>
-    <t>167 ft.</t>
-  </si>
-  <si>
-    <t>7 seconds</t>
-  </si>
-  <si>
-    <t>Arrive at Flip Flop Ln. Your destination is on the left.</t>
-  </si>
-  <si>
-    <t>Section 3: From Gulf Shores RV Resort to Sun Outdoors New Orleans North Shore</t>
-  </si>
-  <si>
-    <t>Head toward Melvin Plash Ln on Flip Flop Ln. Go for 167 ft.</t>
-  </si>
-  <si>
-    <t>11 seconds</t>
-  </si>
-  <si>
-    <t>Turn right onto Melvin Plash Ln. Go for 0.2 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto Gulf Stream Loop. Go for 0.2 mi.</t>
-  </si>
-  <si>
-    <t>39 seconds</t>
-  </si>
-  <si>
-    <t>Turn right onto County Road 6 (CR-6). Go for 2.2 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto Foley Beach Exp toward South Foley Beach Express. Go for 1.1 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto Baldwin Beach Exp. Go for 13.1 mi.</t>
-  </si>
-  <si>
-    <t>Turn left and take ramp onto I-10 W. Go for 49.5 mi.</t>
-  </si>
-  <si>
-    <t>49.5 mi.</t>
-  </si>
-  <si>
-    <t>41 minutes</t>
-  </si>
-  <si>
-    <t>Continue on I-10. Go for 76.9 mi.</t>
-  </si>
-  <si>
-    <t>76.9 mi.</t>
-  </si>
-  <si>
-    <t>1 hour and 1 minute</t>
-  </si>
-  <si>
-    <t>Continue on I-10 (Stephen E Ambrose Memorial Pkwy). Go for 5.5 mi.</t>
-  </si>
-  <si>
-    <t>5.5 mi.</t>
-  </si>
-  <si>
-    <t>Keep right toward I-12 W/Hammond/Baton Rouge/I-59 N/Hattiesburg. Go for 0.2 mi.</t>
-  </si>
-  <si>
-    <t>9 seconds</t>
-  </si>
-  <si>
-    <t>Continue on I-12 toward I-12 W/Hammond/Baton Rouge. Go for 8.7 mi.</t>
-  </si>
-  <si>
-    <t>8.7 mi.</t>
-  </si>
-  <si>
-    <t>Continue on I-12 (West Florida Republic Pkwy). Go for 29.4 mi.</t>
-  </si>
-  <si>
-    <t>29.4 mi.</t>
-  </si>
-  <si>
-    <t>24 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 47 toward LA-445/Robert. Go for 0.5 mi.</t>
-  </si>
-  <si>
-    <t>0.5 mi.</t>
+    <t>Turn left onto Barbara St. Go for 440 ft.</t>
+  </si>
+  <si>
+    <t>440 ft.</t>
+  </si>
+  <si>
+    <t>50 seconds</t>
+  </si>
+  <si>
+    <t>Turn right onto Barbara St. Go for 518 ft.</t>
+  </si>
+  <si>
+    <t>518 ft.</t>
   </si>
   <si>
     <t>53 seconds</t>
-  </si>
-  <si>
-    <t>Turn right onto Highway 445 (LA-445). Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>20 seconds</t>
-  </si>
-  <si>
-    <t>Arrive at Highway 445 (LA-445).</t>
-  </si>
-  <si>
-    <t>Section 4: From Sun Outdoors New Orleans North Shore to Mississippi Ale House</t>
-  </si>
-  <si>
-    <t>Head southeast on Highway 445 (LA-445). Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>36 seconds</t>
-  </si>
-  <si>
-    <t>Turn left and take ramp onto I-12 W (West Florida Republic Pkwy) toward Hammond. Go for 9.4 mi.</t>
-  </si>
-  <si>
-    <t>9.4 mi.</t>
-  </si>
-  <si>
-    <t>Take exit 38B toward Jackson onto I-55 N. Go for 36.8 mi.</t>
-  </si>
-  <si>
-    <t>36.8 mi.</t>
-  </si>
-  <si>
-    <t>29 minutes</t>
-  </si>
-  <si>
-    <t>Continue on I-55. Go for 93.3 mi.</t>
-  </si>
-  <si>
-    <t>93.3 mi.</t>
-  </si>
-  <si>
-    <t>1 hour and 15 minutes</t>
-  </si>
-  <si>
-    <t>Keep left onto I-55 N toward Grenada/Memphis. Go for 187 mi.</t>
-  </si>
-  <si>
-    <t>187.2 mi.</t>
-  </si>
-  <si>
-    <t>2 hours and 29 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 283A-B toward Collierville/MS-304 onto I-269. Go for 15.3 mi.</t>
-  </si>
-  <si>
-    <t>15.3 mi.</t>
-  </si>
-  <si>
-    <t>12 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 16A-16B toward Memphis onto US-78 W. Go for 8.5 mi.</t>
-  </si>
-  <si>
-    <t>8.5 mi.</t>
-  </si>
-  <si>
-    <t>Take exit 4 onto MS-305 N (Cockrum St). Go for 1.3 mi.</t>
-  </si>
-  <si>
-    <t>1.3 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto Goodman Rd. Go for 0.2 mi.</t>
-  </si>
-  <si>
-    <t>48 seconds</t>
-  </si>
-  <si>
-    <t>Turn left onto Pigeon Roost Rd. Go for 217 ft.</t>
-  </si>
-  <si>
-    <t>217 ft.</t>
-  </si>
-  <si>
-    <t>17 seconds</t>
-  </si>
-  <si>
-    <t>Turn right onto Depot St. Go for 509 ft.</t>
-  </si>
-  <si>
-    <t>Turn right onto Highway 178 (MS-178). Go for 164 ft.</t>
-  </si>
-  <si>
-    <t>164 ft.</t>
-  </si>
-  <si>
-    <t>3 seconds</t>
-  </si>
-  <si>
-    <t>Arrive at Highway 178 (MS-178). Your destination is on the right.</t>
-  </si>
-  <si>
-    <t>Section 5: From Mississippi Ale House to 25 N Main St, Franklin, AR 72536-5537, United States</t>
-  </si>
-  <si>
-    <t>Head toward Depot St on Highway 178 (MS-178). Go for 3.4 mi.</t>
-  </si>
-  <si>
-    <t>3.4 mi.</t>
-  </si>
-  <si>
-    <t>Continue on Lamar Ave. Go for 0.7 mi.</t>
-  </si>
-  <si>
-    <t>0.7 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto Lamar Ave (US-78). Go for 6.8 mi.</t>
-  </si>
-  <si>
-    <t>6.8 mi.</t>
-  </si>
-  <si>
-    <t>Take ramp onto I-240 W toward St Louis. Go for 4.3 mi.</t>
-  </si>
-  <si>
-    <t>4.3 mi.</t>
-  </si>
-  <si>
-    <t>Continue on WB Fowler Senior Expy. Go for 0.6 mi.</t>
-  </si>
-  <si>
-    <t>0.6 mi.</t>
-  </si>
-  <si>
-    <t>33 seconds</t>
-  </si>
-  <si>
-    <t>Continue on I-55. Go for 5.0 mi.</t>
-  </si>
-  <si>
-    <t>5.0 mi.</t>
-  </si>
-  <si>
-    <t>Continue toward I-55. Go for 302 ft.</t>
-  </si>
-  <si>
-    <t>302 ft.</t>
-  </si>
-  <si>
-    <t>4 seconds</t>
-  </si>
-  <si>
-    <t>Continue on I-55. Go for 0.5 mi.</t>
-  </si>
-  <si>
-    <t>Take the exit onto I-55 (W EH Crump Blvd). Go for 0.8 mi.</t>
-  </si>
-  <si>
-    <t>Continue on I-55. Go for 7.1 mi.</t>
-  </si>
-  <si>
-    <t>7.1 mi.</t>
-  </si>
-  <si>
-    <t>6 minutes</t>
-  </si>
-  <si>
-    <t>Keep right onto I-55 N toward Blytheville/Jonesboro. Go for 15.7 mi.</t>
-  </si>
-  <si>
-    <t>15.7 mi.</t>
-  </si>
-  <si>
-    <t>Take exit 23 toward US-63/Marked Tree/Jonesboro onto I-555. Go for 107 mi.</t>
-  </si>
-  <si>
-    <t>106.6 mi.</t>
-  </si>
-  <si>
-    <t>1 hour and 39 minutes</t>
-  </si>
-  <si>
-    <t>Keep left onto Highway 63 (US-62/US-63/US-412). Go for 1.3 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto Highway 62 412 (US-62/US-412). Go for 10.2 mi.</t>
-  </si>
-  <si>
-    <t>10.2 mi.</t>
-  </si>
-  <si>
-    <t>11 minutes</t>
-  </si>
-  <si>
-    <t>Continue on Ash Flat Dr (US-167). Go for 1.7 mi.</t>
-  </si>
-  <si>
-    <t>1.7 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto Arkansas Highway 56 (AR-56). Go for 4.5 mi.</t>
-  </si>
-  <si>
-    <t>4.5 mi.</t>
-  </si>
-  <si>
-    <t>5 minutes</t>
-  </si>
-  <si>
-    <t>Continue on E Ar 56 Hwy (AR-56). Go for 3.7 mi.</t>
-  </si>
-  <si>
-    <t>Continue on E 1st St (AR-56). Go for 2.3 mi.</t>
-  </si>
-  <si>
-    <t>2.3 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto N Main St. Go for 125 ft.</t>
-  </si>
-  <si>
-    <t>125 ft.</t>
-  </si>
-  <si>
-    <t>5 seconds</t>
-  </si>
-  <si>
-    <t>Arrive at N Main St. Your destination is on the right.</t>
-  </si>
-  <si>
-    <t>Section 6: From 25 N Main St, Franklin, AR 72536-5537, United States to 1621 W Highway 96, Mansfield, AR 72944-9062, United States</t>
-  </si>
-  <si>
-    <t>Head toward Private Road 4060 on NW 10 Frontage Rd. Go for 0.9 mi.</t>
-  </si>
-  <si>
-    <t>0.9 mi.</t>
-  </si>
-  <si>
-    <t>Turn slightly left onto NW 10 Frontage Rd. Go for 0.8 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto N US Highway 285 (US-285). Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>55 seconds</t>
-  </si>
-  <si>
-    <t>Turn left onto SW 10 Frontage Rd toward I-10 E/US-67 N. Go for 453 ft.</t>
-  </si>
-  <si>
-    <t>453 ft.</t>
-  </si>
-  <si>
-    <t>14 seconds</t>
-  </si>
-  <si>
-    <t>Take ramp onto I-10 E toward US-67 N. Go for 200 mi.</t>
-  </si>
-  <si>
-    <t>200.1 mi.</t>
-  </si>
-  <si>
-    <t>2 hours and 36 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 457 toward FM-2169/Junction/Martinez St. Go for 0.2 mi.</t>
-  </si>
-  <si>
-    <t>27 seconds</t>
-  </si>
-  <si>
-    <t>Turn right onto Martinez St (FM-2169). Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>Continue on E Ranch Road 2169 (FM-2169). Go for 0.6 mi.</t>
-  </si>
-  <si>
-    <t>Continue on Old Cedar Creek Rd. Go for 341 ft.</t>
-  </si>
-  <si>
-    <t>341 ft.</t>
-  </si>
-  <si>
-    <t>Arrive at Old Cedar Creek Rd. Your destination is on the right.</t>
-  </si>
-  <si>
-    <t>Section 7: From 1621 W Highway 96, Mansfield, AR 72944-9062, United States to Oklahoma City East KOA Holiday</t>
-  </si>
-  <si>
-    <t>Head toward Chocoville Rd on Hartford Mansfield Rd (AR-96). Go for 2.2 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto Huntington Ave (AR-96). Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto 3rd (US-71). Go for 20.3 mi.</t>
-  </si>
-  <si>
-    <t>20.3 mi.</t>
-  </si>
-  <si>
-    <t>22 minutes</t>
-  </si>
-  <si>
-    <t>Take ramp onto I-540 N toward US-71 N/I-40. Go for 12.0 mi.</t>
-  </si>
-  <si>
-    <t>12.0 mi.</t>
-  </si>
-  <si>
-    <t>Take left exit 1A toward Oklahoma City onto I-40 W. Go for 8.2 mi.</t>
-  </si>
-  <si>
-    <t>Continue on I-40. Go for 6.1 mi.</t>
-  </si>
-  <si>
-    <t>6.1 mi.</t>
-  </si>
-  <si>
-    <t>Continue on I-40. Go for 74.4 mi.</t>
-  </si>
-  <si>
-    <t>74.4 mi.</t>
-  </si>
-  <si>
-    <t>1 hour and 43 seconds</t>
-  </si>
-  <si>
-    <t>Continue on I-40. Go for 4.7 mi.</t>
-  </si>
-  <si>
-    <t>4.7 mi.</t>
-  </si>
-  <si>
-    <t>Continue on I-40. Go for 79.3 mi.</t>
-  </si>
-  <si>
-    <t>79.3 mi.</t>
-  </si>
-  <si>
-    <t>1 hour and 3 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 166 toward Choctaw Rd. Go for 0.4 mi.</t>
-  </si>
-  <si>
-    <t>50 seconds</t>
-  </si>
-  <si>
-    <t>Turn right onto S Choctaw Rd. Go for 0.6 mi.</t>
-  </si>
-  <si>
-    <t>Turn right. Go for 39 ft.</t>
-  </si>
-  <si>
-    <t>39 ft.</t>
-  </si>
-  <si>
-    <t>2 seconds</t>
-  </si>
-  <si>
-    <t>Arrive at your destination on the left.</t>
-  </si>
-  <si>
-    <t>Section 8: From Oklahoma City East KOA Holiday to Amarillo KOA Journey</t>
-  </si>
-  <si>
-    <t>Head toward S Choctaw Rd. Go for 39 ft.</t>
-  </si>
-  <si>
-    <t>38 seconds</t>
-  </si>
-  <si>
-    <t>Turn left onto S Choctaw Rd. Go for 0.6 mi.</t>
-  </si>
-  <si>
-    <t>58 seconds</t>
-  </si>
-  <si>
-    <t>Turn right and take ramp onto I-40 W (Tom Steed Memorial Hwy). Go for 14.3 mi.</t>
-  </si>
-  <si>
-    <t>14.3 mi.</t>
-  </si>
-  <si>
-    <t>Continue on I-40 W (Stanley Draper Expy) toward Amarillo. Go for 152 mi.</t>
-  </si>
-  <si>
-    <t>152.1 mi.</t>
-  </si>
-  <si>
-    <t>2 hours and 4 minutes</t>
-  </si>
-  <si>
-    <t>Continue on I-40. Go for 100 mi.</t>
-  </si>
-  <si>
-    <t>100.2 mi.</t>
-  </si>
-  <si>
-    <t>1 hour and 21 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 75 toward Lakeside St/TX-335-LOOP onto E I-40. Go for 0.8 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto S Lakeside Dr (TX-335-LOOP). Go for 1.8 mi.</t>
-  </si>
-  <si>
-    <t>1.8 mi.</t>
-  </si>
-  <si>
-    <t>Take ramp onto N Lakeside Dr toward US-60/Amarillo Blvd/I-40-BL. Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>34 seconds</t>
-  </si>
-  <si>
-    <t>Turn right onto Old Route 66 (I-40-BL) toward Panhandle. Go for 1.0 mi.</t>
-  </si>
-  <si>
-    <t>1.0 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto Folsom Rd. Go for 0.2 mi.</t>
-  </si>
-  <si>
-    <t>Turn left. Go for 43 ft.</t>
-  </si>
-  <si>
-    <t>43 ft.</t>
-  </si>
-  <si>
-    <t>Arrive at your destination on the right.</t>
-  </si>
-  <si>
-    <t>Section 9: From Amarillo KOA Journey to Albuquerque North / Bernalillo KOA Journey</t>
-  </si>
-  <si>
-    <t>Head toward Folsom Rd. Go for 43 ft.</t>
-  </si>
-  <si>
-    <t>8 seconds</t>
-  </si>
-  <si>
-    <t>Turn left onto Old Route 66 (I-40-BL). Go for 1.1 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto N Lakeside Dr toward Airport/TX-335-LOOP S. Go for 269 ft.</t>
-  </si>
-  <si>
-    <t>269 ft.</t>
-  </si>
-  <si>
-    <t>Take left ramp onto N Lakeside Dr (TX-335-LOOP S). Go for 2.0 mi.</t>
-  </si>
-  <si>
-    <t>2.0 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto E I-40. Go for 0.6 mi.</t>
-  </si>
-  <si>
-    <t>Take left ramp onto I-40 W. Go for 75.1 mi.</t>
-  </si>
-  <si>
-    <t>75.1 mi.</t>
-  </si>
-  <si>
-    <t>Continue on I-40. Go for 96.9 mi.</t>
-  </si>
-  <si>
-    <t>96.9 mi.</t>
-  </si>
-  <si>
-    <t>1 hour and 20 minutes</t>
-  </si>
-  <si>
-    <t>Continue on I-40 W. Go for 479 ft.</t>
-  </si>
-  <si>
-    <t>479 ft.</t>
-  </si>
-  <si>
-    <t>Continue on I-40. Go for 116 mi.</t>
-  </si>
-  <si>
-    <t>116.5 mi.</t>
-  </si>
-  <si>
-    <t>1 hour and 37 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 159B-C toward Santa Fe onto I-25 N (Historic Route 66). Go for 14.5 mi.</t>
-  </si>
-  <si>
-    <t>14.5 mi.</t>
-  </si>
-  <si>
-    <t>Take exit 240 toward Avenida Bernalillo onto NM-473 (E Avenida Bernalillo). Go for 0.5 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto S Hill Rd. Go for 0.8 mi.</t>
-  </si>
-  <si>
-    <t>Turn left. Go for 59 ft.</t>
-  </si>
-  <si>
-    <t>59 ft.</t>
-  </si>
-  <si>
-    <t>6 seconds</t>
-  </si>
-  <si>
-    <t>Arrive at your destination.</t>
-  </si>
-  <si>
-    <t>Section 10: From Albuquerque North / Bernalillo KOA Journey to Alpen Rose RV Park</t>
-  </si>
-  <si>
-    <t>Head west. Go for 279 ft.</t>
-  </si>
-  <si>
-    <t>279 ft.</t>
-  </si>
-  <si>
-    <t>51 seconds</t>
-  </si>
-  <si>
-    <t>Turn left. Go for 138 ft.</t>
-  </si>
-  <si>
-    <t>138 ft.</t>
-  </si>
-  <si>
-    <t>Turn left toward S Hill Rd. Go for 322 ft.</t>
-  </si>
-  <si>
-    <t>322 ft.</t>
-  </si>
-  <si>
-    <t>Turn right onto E Avenida Bernalillo (NM-473). Go for 0.4 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto S Camino del Pueblo (NM-313). Go for 1.3 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto US-550. Go for 151 mi.</t>
-  </si>
-  <si>
-    <t>151.1 mi.</t>
-  </si>
-  <si>
-    <t>2 hours and 9 minutes</t>
-  </si>
-  <si>
-    <t>Turn right onto W Broadway Ave (US-64/US-550). Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto N 1st St (US-550). Go for 8.3 mi.</t>
-  </si>
-  <si>
-    <t>8.3 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto NE Aztec Blvd (US-550). Go for 14.5 mi.</t>
-  </si>
-  <si>
-    <t>Continue on Highway 550 (US-550). Go for 16.4 mi.</t>
-  </si>
-  <si>
-    <t>17 minutes</t>
-  </si>
-  <si>
-    <t>Turn left onto S Camino del Rio (US-160/US-550). Go for 10.7 mi.</t>
-  </si>
-  <si>
-    <t>10.7 mi.</t>
-  </si>
-  <si>
-    <t>Turn left. Go for 466 ft.</t>
-  </si>
-  <si>
-    <t>466 ft.</t>
-  </si>
-  <si>
-    <t>28 seconds</t>
-  </si>
-  <si>
-    <t>Section 11: From Alpen Rose RV Park to Sun Outdoors  North Moab</t>
-  </si>
-  <si>
-    <t>Head toward Highway 550. Go for 466 ft.</t>
-  </si>
-  <si>
-    <t>42 seconds</t>
-  </si>
-  <si>
-    <t>Turn right onto Highway 550 (US-550). Go for 5.5 mi.</t>
-  </si>
-  <si>
-    <t>Keep right onto Camino del Rio (US-550). Go for 0.8 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto San Juan Skwy (US-160). Go for 27.2 mi.</t>
-  </si>
-  <si>
-    <t>27.2 mi.</t>
-  </si>
-  <si>
-    <t>26 minutes</t>
-  </si>
-  <si>
-    <t>Continue on Highway 160 (US-160). Go for 17.8 mi.</t>
-  </si>
-  <si>
-    <t>17.8 mi.</t>
-  </si>
-  <si>
-    <t>18 minutes</t>
-  </si>
-  <si>
-    <t>Keep right onto N Pinon Dr. Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>35 seconds</t>
-  </si>
-  <si>
-    <t>Continue on N Broadway (US-491). Go for 35.1 mi.</t>
-  </si>
-  <si>
-    <t>35.1 mi.</t>
-  </si>
-  <si>
-    <t>33 minutes</t>
-  </si>
-  <si>
-    <t>Continue on Highway 491 (US-491). Go for 7.8 mi.</t>
-  </si>
-  <si>
-    <t>7.8 mi.</t>
-  </si>
-  <si>
-    <t>Continue on US-491. Go for 17.1 mi.</t>
-  </si>
-  <si>
-    <t>17.1 mi.</t>
-  </si>
-  <si>
-    <t>16 minutes</t>
-  </si>
-  <si>
-    <t>Turn right onto N Main St (US-191). Go for 55.7 mi.</t>
-  </si>
-  <si>
-    <t>55.7 mi.</t>
-  </si>
-  <si>
-    <t>53 minutes</t>
-  </si>
-  <si>
-    <t>Arrive at N Highway 191 (US-191). Your destination is on the left.</t>
-  </si>
-  <si>
-    <t>Section 12: From Sun Outdoors  North Moab to 410 Loveridge Dr, Moab, UT 84532-2808, United States</t>
-  </si>
-  <si>
-    <t>Head southeast on N Highway 191 (US-191). Go for 1.8 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto E Center St. Go for 0.4 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto S 400 E. Go for 0.4 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto Mill Creek Dr. Go for 0.2 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto Loveridge Dr. Go for 305 ft.</t>
-  </si>
-  <si>
-    <t>305 ft.</t>
-  </si>
-  <si>
-    <t>Arrive at Loveridge Dr. Your destination is on the left.</t>
-  </si>
-  <si>
-    <t>Section 13: From 410 Loveridge Dr, Moab, UT 84532-2808, United States to Salt Lake City KOA Holiday</t>
-  </si>
-  <si>
-    <t>Head toward Mill Creek Dr on Loveridge Dr. Go for 305 ft.</t>
-  </si>
-  <si>
-    <t>Turn right onto Mill Creek Dr. Go for 0.2 mi.</t>
-  </si>
-  <si>
-    <t>37 seconds</t>
-  </si>
-  <si>
-    <t>Turn right onto N Main St (US-191). Go for 31.5 mi.</t>
-  </si>
-  <si>
-    <t>31.5 mi.</t>
-  </si>
-  <si>
-    <t>30 minutes</t>
-  </si>
-  <si>
-    <t>Turn left and take ramp onto I-70 W (Dinosaur Diamond Prehistoric Hwy) toward US-6 W/US-191 W. Go for 23.8 mi.</t>
-  </si>
-  <si>
-    <t>23.8 mi.</t>
-  </si>
-  <si>
-    <t>Take exit 157 toward Price/Salt Lake City onto US-6 W/US-191 N (N Highway 6). Go for 127 mi.</t>
-  </si>
-  <si>
-    <t>127.1 mi.</t>
-  </si>
-  <si>
-    <t>1 hour and 58 minutes</t>
-  </si>
-  <si>
-    <t>Take ramp onto I-15 N toward Salt Lake City. Go for 50.0 mi.</t>
-  </si>
-  <si>
-    <t>50.0 mi.</t>
-  </si>
-  <si>
-    <t>40 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 308 toward 308 onto I-80. Go for 1.7 mi.</t>
-  </si>
-  <si>
-    <t>Take exit 118 toward UT-68/Redwood Rd. Go for 0.2 mi.</t>
-  </si>
-  <si>
-    <t>Turn right onto S Redwood Rd (UT-68). Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>57 seconds</t>
-  </si>
-  <si>
-    <t>Turn right onto W North Temple. Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>Turn left onto N 1460 W. Go for 295 ft.</t>
-  </si>
-  <si>
-    <t>295 ft.</t>
-  </si>
-  <si>
-    <t>Turn right. Go for 49 ft.</t>
-  </si>
-  <si>
-    <t>49 ft.</t>
-  </si>
-  <si>
-    <t>Section 14: From Salt Lake City KOA Holiday to Center Point RV Park</t>
-  </si>
-  <si>
-    <t>Head toward N 1460 W. Go for 49 ft.</t>
-  </si>
-  <si>
-    <t>Turn left onto N 1460 W. Go for 210 ft.</t>
-  </si>
-  <si>
-    <t>210 ft.</t>
-  </si>
-  <si>
-    <t>Turn left onto N Redwood Rd (UT-68). Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>56 seconds</t>
-  </si>
-  <si>
-    <t>Turn right and take ramp onto I-215 N toward West I-80/West I-215. Go for 4.6 mi.</t>
-  </si>
-  <si>
-    <t>4.6 mi.</t>
-  </si>
-  <si>
-    <t>Keep left toward Legacy Pkwy North. Go for 0.1 mi.</t>
-  </si>
-  <si>
-    <t>Continue on UT-67 (Legacy Pkwy). Go for 12.1 mi.</t>
-  </si>
-  <si>
-    <t>12.1 mi.</t>
-  </si>
-  <si>
-    <t>Take left exit 13 toward Ogden onto I-15 N. Go for 50.8 mi.</t>
-  </si>
-  <si>
-    <t>50.8 mi.</t>
-  </si>
-  <si>
-    <t>Continue on I-15 (I-84). Go for 4.3 mi.</t>
-  </si>
-  <si>
-    <t>Keep left onto I-84 toward I-84 W/Boise. Go for 0.8 mi.</t>
-  </si>
-  <si>
-    <t>Continue on UT-30 (I-84). Go for 1.9 mi.</t>
-  </si>
-  <si>
-    <t>1.9 mi.</t>
-  </si>
-  <si>
-    <t>Continue on I-84. Go for 39.5 mi.</t>
-  </si>
-  <si>
-    <t>39.5 mi.</t>
-  </si>
-  <si>
-    <t>32 minutes</t>
-  </si>
-  <si>
-    <t>Continue on I-84. Go for 240 mi.</t>
-  </si>
-  <si>
-    <t>240.4 mi.</t>
-  </si>
-  <si>
-    <t>3 hours and 25 minutes</t>
-  </si>
-  <si>
-    <t>Take exit 35 toward Northside Boulevard. Go for 0.3 mi.</t>
-  </si>
-  <si>
-    <t>Continue on Northside Blvd (ID-55). Go for 0.2 mi.</t>
-  </si>
-  <si>
-    <t>54 seconds</t>
-  </si>
-  <si>
-    <t>Turn left onto 6th St N. Go for 259 ft.</t>
-  </si>
-  <si>
-    <t>259 ft.</t>
-  </si>
-  <si>
-    <t>Turn left onto Barbara St. Go for 440 ft.</t>
-  </si>
-  <si>
-    <t>440 ft.</t>
-  </si>
-  <si>
-    <t>Turn right onto Barbara St. Go for 518 ft.</t>
   </si>
   <si>
     <t>Arrive at Barbara St. Your destination is on the right.</t>
@@ -2412,7 +2514,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="14">
-        <v>135.07</v>
+        <v>135.05</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2460,10 +2562,10 @@
         </is>
       </c>
       <c r="C7" s="4">
-        <v>253.9</v>
+        <v>236.2</v>
       </c>
       <c r="D7" s="4">
-        <v>509.8</v>
+        <v>492.1</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>22</v>
@@ -2475,7 +2577,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="14">
-        <v>528.48</v>
+        <v>519.16</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
@@ -2546,7 +2648,7 @@
         <v>197.3</v>
       </c>
       <c r="D8" s="4">
-        <v>707.1</v>
+        <v>689.4</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
@@ -2615,10 +2717,10 @@
         </is>
       </c>
       <c r="C9" s="4">
-        <v>352.4</v>
+        <v>343.5</v>
       </c>
       <c r="D9" s="4">
-        <v>1059.5</v>
+        <v>1032.9</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>30</v>
@@ -2630,7 +2732,7 @@
         <v>35</v>
       </c>
       <c r="H9" s="14">
-        <v>185.99</v>
+        <v>181.29</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
@@ -2664,7 +2766,7 @@
       <c r="B10" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25 N Main St, Franklin, AR 72536-5537, United States</t>
+            <t xml:space="preserve">Franklin, AR 72536-5537, United States</t>
           </r>
           <r>
             <t xml:space="preserve">
@@ -2683,7 +2785,7 @@
         <v>175.3</v>
       </c>
       <c r="D10" s="4">
-        <v>1234.8</v>
+        <v>1208.2</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>35</v>
@@ -2695,7 +2797,7 @@
         <v>38</v>
       </c>
       <c r="H10" s="14">
-        <v>92.51</v>
+        <v>92.5</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -2727,7 +2829,7 @@
       <c r="B11" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1621 W Highway 96, Mansfield, AR 72944-9062, United States</t>
+            <t xml:space="preserve">Mansfield, AR 72944-9062, United States</t>
           </r>
           <r>
             <t xml:space="preserve">
@@ -2743,10 +2845,10 @@
         </is>
       </c>
       <c r="C11" s="4">
-        <v>203.3</v>
+        <v>263.4</v>
       </c>
       <c r="D11" s="4">
-        <v>1438.1</v>
+        <v>1471.6</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>38</v>
@@ -2758,7 +2860,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="14">
-        <v>107.31</v>
+        <v>139.04</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -2823,10 +2925,10 @@
         </is>
       </c>
       <c r="C12" s="4">
-        <v>208.6</v>
+        <v>194.9</v>
       </c>
       <c r="D12" s="4">
-        <v>1646.7</v>
+        <v>1666.5</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>40</v>
@@ -2838,7 +2940,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="14">
-        <v>380.1</v>
+        <v>372.85</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
@@ -2912,10 +3014,10 @@
         </is>
       </c>
       <c r="C13" s="4">
-        <v>271.5</v>
+        <v>267.9</v>
       </c>
       <c r="D13" s="4">
-        <v>1918.2</v>
+        <v>1934.3</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>42</v>
@@ -2927,7 +3029,7 @@
         <v>47</v>
       </c>
       <c r="H13" s="14">
-        <v>198.18</v>
+        <v>196.27</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
@@ -3004,7 +3106,7 @@
         <v>308.3</v>
       </c>
       <c r="D14" s="4">
-        <v>2226.5</v>
+        <v>2242.7</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>47</v>
@@ -3076,7 +3178,7 @@
         <v>204.1</v>
       </c>
       <c r="D15" s="4">
-        <v>2430.7</v>
+        <v>2446.8</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>52</v>
@@ -3148,7 +3250,7 @@
         <v>167.3</v>
       </c>
       <c r="D16" s="4">
-        <v>2598</v>
+        <v>2614.1</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>57</v>
@@ -3213,7 +3315,7 @@
         <v>2.9</v>
       </c>
       <c r="D17" s="4">
-        <v>2600.8</v>
+        <v>2617</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>62</v>
@@ -3225,7 +3327,7 @@
         <v>67</v>
       </c>
       <c r="H17" s="14">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -3293,7 +3395,7 @@
         <v>236.1</v>
       </c>
       <c r="D18" s="4">
-        <v>2836.9</v>
+        <v>2853.1</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>67</v>
@@ -3305,7 +3407,7 @@
         <v>69</v>
       </c>
       <c r="H18" s="14">
-        <v>676.75</v>
+        <v>676.74</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
@@ -3362,10 +3464,10 @@
         </is>
       </c>
       <c r="C19" s="4">
-        <v>355.8</v>
+        <v>356.5</v>
       </c>
       <c r="D19" s="4">
-        <v>3192.8</v>
+        <v>3209.6</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>69</v>
@@ -3377,7 +3479,7 @@
         <v>74</v>
       </c>
       <c r="H19" s="14">
-        <v>1987.8</v>
+        <v>1988.15</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
@@ -3435,7 +3537,7 @@
       </c>
       <c r="G21" s="15">
         <f>SUM(C5:C19)</f>
-        <v>3192.7</v>
+        <v>3209.6</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
@@ -3532,14 +3634,14 @@
         <v>0</v>
       </c>
       <c r="E25" s="17">
-        <v>1685.07</v>
+        <v>1693.94</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>86</v>
       </c>
       <c r="G25" s="18">
         <f>SUM(H5:H19)</f>
-        <v>6707.04</v>
+        <v>6715.91</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
@@ -3595,14 +3697,14 @@
       </c>
       <c r="E27" s="17">
         <f>IF(SUM(F5:F19)=0,E25,(E25  / SUM(F5:F19)))</f>
-        <v>10.466273291925</v>
+        <v>10.521366459627</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>86</v>
       </c>
       <c r="G27" s="18">
         <f>IF(SUM(F5:F19)=0,G25,(G25  / SUM(F5:F19)))</f>
-        <v>41.658633540373</v>
+        <v>41.713726708075</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
@@ -4954,17 +5056,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A188" sqref="A188"/>
+      <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="130.825195" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="26.993408" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -5054,7 +5156,7 @@
         <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5062,13 +5164,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5076,13 +5178,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
         <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5093,10 +5195,10 @@
         <v>113</v>
       </c>
       <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
         <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5104,13 +5206,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
         <v>116</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>117</v>
-      </c>
-      <c r="D11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5118,13 +5220,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
         <v>119</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5132,13 +5234,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
         <v>122</v>
       </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5146,42 +5248,42 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="19" t="s">
-        <v>124</v>
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>127</v>
+      <c r="A17" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5189,13 +5291,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5203,13 +5305,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5217,13 +5319,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5231,13 +5333,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5245,13 +5347,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5259,13 +5361,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5293,7 +5395,7 @@
         <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5304,10 +5406,10 @@
         <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5349,7 +5451,7 @@
         <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5373,110 +5475,110 @@
       <c r="B31" t="s">
         <v>161</v>
       </c>
-      <c r="C31"/>
-      <c r="D31"/>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="19" t="s">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
         <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>166</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" t="s">
-        <v>146</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" t="s">
-        <v>143</v>
+      <c r="A39" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5484,13 +5586,13 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5498,13 +5600,13 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
         <v>174</v>
-      </c>
-      <c r="C41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5512,13 +5614,13 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5526,13 +5628,13 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5540,13 +5642,13 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5554,13 +5656,13 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5571,10 +5673,10 @@
         <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5582,13 +5684,13 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5596,112 +5698,112 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
         <v>191</v>
       </c>
-      <c r="C48"/>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="19" t="s">
+      <c r="C49" t="s">
         <v>192</v>
+      </c>
+      <c r="D49" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
         <v>203</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" t="s">
-        <v>207</v>
-      </c>
-      <c r="D55" t="s">
-        <v>208</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56">
-        <v>51</v>
-      </c>
-      <c r="B56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" t="s">
-        <v>210</v>
-      </c>
-      <c r="D56" t="s">
-        <v>127</v>
+      <c r="A56" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5709,13 +5811,13 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5723,13 +5825,13 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5737,13 +5839,13 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5751,13 +5853,13 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5765,13 +5867,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5779,67 +5881,80 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
         <v>222</v>
       </c>
-      <c r="C62"/>
-      <c r="D62"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="19" t="s">
-        <v>223</v>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" t="s">
         <v>224</v>
       </c>
-      <c r="C64" t="s">
-        <v>225</v>
-      </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" t="s">
         <v>228</v>
-      </c>
-      <c r="C66" t="s">
-        <v>229</v>
-      </c>
-      <c r="D66" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" t="s">
         <v>230</v>
-      </c>
-      <c r="C67" t="s">
-        <v>231</v>
       </c>
       <c r="D67" t="s">
         <v>132</v>
@@ -5847,44 +5962,31 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" t="s">
         <v>232</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>233</v>
-      </c>
-      <c r="D68" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="C69" t="s">
-        <v>236</v>
-      </c>
-      <c r="D69" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>64</v>
-      </c>
-      <c r="B70" t="s">
-        <v>237</v>
-      </c>
-      <c r="C70" t="s">
-        <v>238</v>
-      </c>
-      <c r="D70" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5892,13 +5994,13 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5906,13 +6008,13 @@
         <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5920,13 +6022,13 @@
         <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5934,13 +6036,13 @@
         <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D74" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5948,13 +6050,13 @@
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C75" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5962,13 +6064,13 @@
         <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D76" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5976,13 +6078,13 @@
         <v>71</v>
       </c>
       <c r="B77" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" t="s">
         <v>251</v>
-      </c>
-      <c r="C77" t="s">
-        <v>252</v>
-      </c>
-      <c r="D77" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5990,13 +6092,13 @@
         <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>101</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -6004,13 +6106,13 @@
         <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -6018,13 +6120,13 @@
         <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C80" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6032,13 +6134,13 @@
         <v>75</v>
       </c>
       <c r="B81" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" t="s">
         <v>260</v>
-      </c>
-      <c r="C81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D81" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -6046,13 +6148,13 @@
         <v>76</v>
       </c>
       <c r="B82" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" t="s">
         <v>262</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>263</v>
-      </c>
-      <c r="D82" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6060,112 +6162,112 @@
         <v>77</v>
       </c>
       <c r="B83" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" t="s">
         <v>265</v>
       </c>
-      <c r="C83"/>
-      <c r="D83"/>
+      <c r="D83" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="19" t="s">
+      <c r="A84">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
         <v>266</v>
+      </c>
+      <c r="C84" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C85" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
-        <v>271</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D88" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C89" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>278</v>
-      </c>
-      <c r="C90" t="s">
-        <v>151</v>
-      </c>
-      <c r="D90" t="s">
-        <v>279</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91">
-        <v>84</v>
-      </c>
-      <c r="B91" t="s">
-        <v>280</v>
-      </c>
-      <c r="C91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D91" t="s">
-        <v>279</v>
+      <c r="A91" s="19" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -6173,13 +6275,13 @@
         <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C92" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="D92" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -6187,13 +6289,13 @@
         <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C93" t="s">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="D93" t="s">
-        <v>274</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -6201,109 +6303,122 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
-      </c>
-      <c r="C94"/>
-      <c r="D94"/>
+        <v>286</v>
+      </c>
+      <c r="C94" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="19" t="s">
-        <v>285</v>
+      <c r="A95">
+        <v>88</v>
+      </c>
+      <c r="B95" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="D96" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>292</v>
       </c>
       <c r="D97" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" t="s">
         <v>288</v>
       </c>
-      <c r="C98" t="s">
-        <v>289</v>
-      </c>
       <c r="D98" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="D99" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C100" t="s">
-        <v>117</v>
+        <v>297</v>
       </c>
       <c r="D100" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C101" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D101" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C102" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D102" t="s">
         <v>298</v>
@@ -6311,176 +6426,176 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C103" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D103" t="s">
-        <v>104</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C104" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D104" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C106" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="D106" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C107" t="s">
-        <v>308</v>
+        <v>106</v>
       </c>
       <c r="D107" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>310</v>
-      </c>
-      <c r="C108"/>
-      <c r="D108"/>
+        <v>315</v>
+      </c>
+      <c r="C108" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="19" t="s">
-        <v>311</v>
-      </c>
+      <c r="A109">
+        <v>102</v>
+      </c>
+      <c r="B109" t="s">
+        <v>316</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110">
-        <v>101</v>
-      </c>
-      <c r="B110" t="s">
-        <v>312</v>
-      </c>
-      <c r="C110" t="s">
-        <v>308</v>
-      </c>
-      <c r="D110" t="s">
-        <v>313</v>
+      <c r="A110" s="19" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B111" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C111" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C112" t="s">
-        <v>317</v>
+        <v>106</v>
       </c>
       <c r="D112" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C113" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D113" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B114" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C114" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D114" t="s">
-        <v>323</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B115" t="s">
         <v>324</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="D115" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B116" t="s">
         <v>325</v>
@@ -6489,26 +6604,26 @@
         <v>326</v>
       </c>
       <c r="D116" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B117" t="s">
         <v>327</v>
       </c>
       <c r="C117" t="s">
-        <v>108</v>
+        <v>328</v>
       </c>
       <c r="D117" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B118" t="s">
         <v>329</v>
@@ -6517,232 +6632,219 @@
         <v>330</v>
       </c>
       <c r="D118" t="s">
-        <v>146</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B119" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C119" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D119" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C120" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="D120" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B121" t="s">
         <v>334</v>
       </c>
-      <c r="C121"/>
-      <c r="D121"/>
+      <c r="C121" t="s">
+        <v>335</v>
+      </c>
+      <c r="D121" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="19" t="s">
-        <v>335</v>
-      </c>
+      <c r="A122">
+        <v>114</v>
+      </c>
+      <c r="B122" t="s">
+        <v>337</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123">
-        <v>113</v>
-      </c>
-      <c r="B123" t="s">
-        <v>336</v>
-      </c>
-      <c r="C123" t="s">
-        <v>333</v>
-      </c>
-      <c r="D123" t="s">
-        <v>337</v>
+      <c r="A123" s="19" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C124" t="s">
-        <v>151</v>
+        <v>335</v>
       </c>
       <c r="D124" t="s">
-        <v>146</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C125" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="D125" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C126" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D126" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C127" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D127" t="s">
-        <v>101</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B128" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C128" t="s">
-        <v>233</v>
+        <v>348</v>
       </c>
       <c r="D128" t="s">
-        <v>188</v>
+        <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B129" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C129" t="s">
-        <v>345</v>
+        <v>106</v>
       </c>
       <c r="D129" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B130" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C130" t="s">
-        <v>347</v>
+        <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>348</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B131" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C131" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D131" t="s">
-        <v>264</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B132" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C132" t="s">
-        <v>352</v>
+        <v>143</v>
       </c>
       <c r="D132" t="s">
-        <v>353</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B133" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D133" t="s">
-        <v>208</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B134" t="s">
-        <v>356</v>
-      </c>
-      <c r="C134" t="s">
-        <v>187</v>
-      </c>
-      <c r="D134" t="s">
-        <v>305</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C134"/>
+      <c r="D134"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135">
-        <v>125</v>
-      </c>
-      <c r="B135" t="s">
-        <v>357</v>
-      </c>
-      <c r="C135" t="s">
-        <v>103</v>
-      </c>
-      <c r="D135" t="s">
-        <v>146</v>
+      <c r="A135" s="19" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6750,10 +6852,10 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C136" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D136" t="s">
         <v>360</v>
@@ -6766,17 +6868,30 @@
       <c r="B137" t="s">
         <v>361</v>
       </c>
-      <c r="C137"/>
-      <c r="D137"/>
+      <c r="C137" t="s">
+        <v>143</v>
+      </c>
+      <c r="D137" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="19" t="s">
+      <c r="A138">
+        <v>128</v>
+      </c>
+      <c r="B138" t="s">
         <v>362</v>
+      </c>
+      <c r="C138" t="s">
+        <v>131</v>
+      </c>
+      <c r="D138" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B139" t="s">
         <v>363</v>
@@ -6790,7 +6905,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B140" t="s">
         <v>366</v>
@@ -6799,161 +6914,148 @@
         <v>367</v>
       </c>
       <c r="D140" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B141" t="s">
         <v>368</v>
       </c>
       <c r="C141" t="s">
-        <v>369</v>
+        <v>245</v>
       </c>
       <c r="D141" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C142" t="s">
-        <v>103</v>
+        <v>370</v>
       </c>
       <c r="D142" t="s">
-        <v>146</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C143" t="s">
-        <v>100</v>
+        <v>373</v>
       </c>
       <c r="D143" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C144" t="s">
-        <v>212</v>
+        <v>376</v>
       </c>
       <c r="D144" t="s">
-        <v>104</v>
+        <v>377</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C145" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D145" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C146" t="s">
-        <v>108</v>
+        <v>382</v>
       </c>
       <c r="D146" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C147" t="s">
-        <v>377</v>
+        <v>202</v>
       </c>
       <c r="D147" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C148" t="s">
-        <v>355</v>
+        <v>109</v>
       </c>
       <c r="D148" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C149" t="s">
-        <v>137</v>
+        <v>386</v>
       </c>
       <c r="D149" t="s">
-        <v>380</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>381</v>
-      </c>
-      <c r="C150" t="s">
-        <v>382</v>
-      </c>
-      <c r="D150" t="s">
-        <v>143</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151">
-        <v>140</v>
-      </c>
-      <c r="B151" t="s">
-        <v>383</v>
-      </c>
-      <c r="C151" t="s">
-        <v>384</v>
-      </c>
-      <c r="D151" t="s">
-        <v>385</v>
+      <c r="A151" s="19" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6961,746 +7063,942 @@
         <v>141</v>
       </c>
       <c r="B152" t="s">
-        <v>310</v>
-      </c>
-      <c r="C152"/>
-      <c r="D152"/>
+        <v>389</v>
+      </c>
+      <c r="C152" t="s">
+        <v>390</v>
+      </c>
+      <c r="D152" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="19" t="s">
-        <v>386</v>
+      <c r="A153">
+        <v>142</v>
+      </c>
+      <c r="B153" t="s">
+        <v>391</v>
+      </c>
+      <c r="C153" t="s">
+        <v>392</v>
+      </c>
+      <c r="D153" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B154" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C154" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D154" t="s">
-        <v>388</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B155" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C155" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="D155" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B156" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C156" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="D156" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B157" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C157" t="s">
-        <v>392</v>
+        <v>265</v>
       </c>
       <c r="D157" t="s">
-        <v>393</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B158" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C158" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D158" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B159" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C159" t="s">
-        <v>108</v>
+        <v>402</v>
       </c>
       <c r="D159" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B160" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C160" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D160" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B161" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C161" t="s">
-        <v>403</v>
+        <v>106</v>
       </c>
       <c r="D161" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B162" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C162" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D162" t="s">
-        <v>406</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C163" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="D163" t="s">
-        <v>409</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B164" t="s">
-        <v>410</v>
-      </c>
-      <c r="C164"/>
-      <c r="D164"/>
+        <v>411</v>
+      </c>
+      <c r="C164" t="s">
+        <v>154</v>
+      </c>
+      <c r="D164" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="19" t="s">
-        <v>411</v>
+      <c r="A165">
+        <v>154</v>
+      </c>
+      <c r="B165" t="s">
+        <v>413</v>
+      </c>
+      <c r="C165" t="s">
+        <v>414</v>
+      </c>
+      <c r="D165" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C166" t="s">
-        <v>326</v>
+        <v>417</v>
       </c>
       <c r="D166" t="s">
-        <v>104</v>
+        <v>418</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B167" t="s">
-        <v>413</v>
-      </c>
-      <c r="C167" t="s">
-        <v>100</v>
-      </c>
-      <c r="D167" t="s">
-        <v>146</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C167"/>
+      <c r="D167"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168">
-        <v>155</v>
-      </c>
-      <c r="B168" t="s">
-        <v>414</v>
-      </c>
-      <c r="C168" t="s">
-        <v>100</v>
-      </c>
-      <c r="D168" t="s">
-        <v>146</v>
+      <c r="A168" s="19" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B169" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C169" t="s">
-        <v>151</v>
+        <v>417</v>
       </c>
       <c r="D169" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B170" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C170" t="s">
-        <v>417</v>
+        <v>195</v>
       </c>
       <c r="D170" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>418</v>
-      </c>
-      <c r="C171"/>
-      <c r="D171"/>
+        <v>422</v>
+      </c>
+      <c r="C171" t="s">
+        <v>109</v>
+      </c>
+      <c r="D171" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="19" t="s">
-        <v>419</v>
+      <c r="A172">
+        <v>160</v>
+      </c>
+      <c r="B172" t="s">
+        <v>423</v>
+      </c>
+      <c r="C172" t="s">
+        <v>424</v>
+      </c>
+      <c r="D172" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C173" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D173" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B174" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C174" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="D174" t="s">
-        <v>422</v>
+        <v>310</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B175" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="C175" t="s">
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="D175" t="s">
-        <v>146</v>
+        <v>431</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B176" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C176" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="D176" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B177" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="C177" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="D177" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B178" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="C178" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="D178" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B179" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C179" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D179" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B180" t="s">
-        <v>431</v>
-      </c>
-      <c r="C180" t="s">
-        <v>432</v>
-      </c>
-      <c r="D180" t="s">
-        <v>433</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C180"/>
+      <c r="D180"/>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181">
-        <v>167</v>
-      </c>
-      <c r="B181" t="s">
-        <v>434</v>
-      </c>
-      <c r="C181" t="s">
-        <v>255</v>
-      </c>
-      <c r="D181" t="s">
-        <v>146</v>
+      <c r="A181" s="19" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B182" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C182" t="s">
-        <v>151</v>
+        <v>441</v>
       </c>
       <c r="D182" t="s">
-        <v>194</v>
+        <v>444</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B183" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C183" t="s">
-        <v>108</v>
+        <v>446</v>
       </c>
       <c r="D183" t="s">
-        <v>437</v>
+        <v>110</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B184" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C184" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D184" t="s">
-        <v>437</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B185" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="C185" t="s">
-        <v>440</v>
+        <v>157</v>
       </c>
       <c r="D185" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B186" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C186" t="s">
-        <v>442</v>
+        <v>143</v>
       </c>
       <c r="D186" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B187" t="s">
-        <v>361</v>
-      </c>
-      <c r="C187"/>
-      <c r="D187"/>
+        <v>450</v>
+      </c>
+      <c r="C187" t="s">
+        <v>451</v>
+      </c>
+      <c r="D187" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="19" t="s">
-        <v>443</v>
-      </c>
+      <c r="A188">
+        <v>175</v>
+      </c>
+      <c r="B188" t="s">
+        <v>453</v>
+      </c>
+      <c r="C188"/>
+      <c r="D188"/>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189">
-        <v>174</v>
-      </c>
-      <c r="B189" t="s">
-        <v>444</v>
-      </c>
-      <c r="C189" t="s">
-        <v>442</v>
-      </c>
-      <c r="D189" t="s">
-        <v>155</v>
+      <c r="A189" s="19" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B190" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C190" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D190" t="s">
-        <v>155</v>
+        <v>418</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B191" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="C191" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D191" t="s">
-        <v>146</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B192" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C192" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D192" t="s">
-        <v>448</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B193" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C193" t="s">
-        <v>450</v>
+        <v>157</v>
       </c>
       <c r="D193" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B194" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C194" t="s">
-        <v>97</v>
+        <v>459</v>
       </c>
       <c r="D194" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B195" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C195" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D195" t="s">
-        <v>118</v>
+        <v>462</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B196" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C196" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D196" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B197" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C197" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="D197" t="s">
-        <v>104</v>
+        <v>365</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B198" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C198" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="D198" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B199" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C199" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D199" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B200" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C200" t="s">
-        <v>461</v>
+        <v>270</v>
       </c>
       <c r="D200" t="s">
-        <v>462</v>
+        <v>132</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B201" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C201" t="s">
-        <v>464</v>
+        <v>143</v>
       </c>
       <c r="D201" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B202" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C202" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D202" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B203" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C203" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="D203" t="s">
-        <v>468</v>
+        <v>132</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B204" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C204" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D204" t="s">
-        <v>152</v>
+        <v>340</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B205" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C205" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D205" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B206" t="s">
-        <v>473</v>
-      </c>
-      <c r="C206" t="s">
-        <v>97</v>
-      </c>
-      <c r="D206" t="s">
-        <v>234</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C206"/>
+      <c r="D206"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207">
-        <v>192</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="A207" s="19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>193</v>
+      </c>
+      <c r="B208" t="s">
+        <v>480</v>
+      </c>
+      <c r="C208" t="s">
+        <v>478</v>
+      </c>
+      <c r="D208" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>194</v>
+      </c>
+      <c r="B209" t="s">
+        <v>482</v>
+      </c>
+      <c r="C209" t="s">
+        <v>483</v>
+      </c>
+      <c r="D209" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>195</v>
+      </c>
+      <c r="B210" t="s">
         <v>474</v>
       </c>
-      <c r="C207"/>
-      <c r="D207"/>
+      <c r="C210" t="s">
+        <v>106</v>
+      </c>
+      <c r="D210" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>196</v>
+      </c>
+      <c r="B211" t="s">
+        <v>485</v>
+      </c>
+      <c r="C211" t="s">
+        <v>106</v>
+      </c>
+      <c r="D211" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>197</v>
+      </c>
+      <c r="B212" t="s">
+        <v>486</v>
+      </c>
+      <c r="C212" t="s">
+        <v>487</v>
+      </c>
+      <c r="D212" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>198</v>
+      </c>
+      <c r="B213" t="s">
+        <v>488</v>
+      </c>
+      <c r="C213" t="s">
+        <v>489</v>
+      </c>
+      <c r="D213" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>199</v>
+      </c>
+      <c r="B214" t="s">
+        <v>491</v>
+      </c>
+      <c r="C214" t="s">
+        <v>492</v>
+      </c>
+      <c r="D214" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>200</v>
+      </c>
+      <c r="B215" t="s">
+        <v>494</v>
+      </c>
+      <c r="C215" t="s">
+        <v>495</v>
+      </c>
+      <c r="D215" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>201</v>
+      </c>
+      <c r="B216" t="s">
+        <v>497</v>
+      </c>
+      <c r="C216" t="s">
+        <v>106</v>
+      </c>
+      <c r="D216" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>202</v>
+      </c>
+      <c r="B217" t="s">
+        <v>498</v>
+      </c>
+      <c r="C217" t="s">
+        <v>143</v>
+      </c>
+      <c r="D217" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>203</v>
+      </c>
+      <c r="B218" t="s">
+        <v>499</v>
+      </c>
+      <c r="C218" t="s">
+        <v>500</v>
+      </c>
+      <c r="D218" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>204</v>
+      </c>
+      <c r="B219" t="s">
+        <v>502</v>
+      </c>
+      <c r="C219" t="s">
+        <v>503</v>
+      </c>
+      <c r="D219" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>205</v>
+      </c>
+      <c r="B220" t="s">
+        <v>505</v>
+      </c>
+      <c r="C220" t="s">
+        <v>506</v>
+      </c>
+      <c r="D220" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>206</v>
+      </c>
+      <c r="B221" t="s">
+        <v>508</v>
+      </c>
+      <c r="C221"/>
+      <c r="D221"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A207:D207"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
